--- a/individual_results/avey/24.xlsx
+++ b/individual_results/avey/24.xlsx
@@ -555,7 +555,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>0.6</v>
@@ -564,7 +564,7 @@
         <v>0.8</v>
       </c>
       <c r="F2" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>1</v>
@@ -597,7 +597,7 @@
         <v>0.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="R2" t="n">
         <v>0.3333333333333333</v>
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="n">
         <v>0.6</v>
@@ -637,7 +637,7 @@
         <v>0.8</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -646,7 +646,7 @@
         <v>0.2</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J3" t="n">
         <v>0.6</v>
@@ -670,7 +670,7 @@
         <v>0.6</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="R3" t="n">
         <v>0.2</v>
@@ -688,7 +688,7 @@
         <v>0.6</v>
       </c>
       <c r="W3" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="4">
@@ -701,7 +701,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6666666666666665</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="D4" t="n">
         <v>0.6</v>
@@ -710,13 +710,15 @@
         <v>0.8000000000000002</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
         <v>0.3333333333333334</v>
       </c>
-      <c r="I4" t="inlineStr"/>
+      <c r="I4" t="n">
+        <v>0.3333333333333334</v>
+      </c>
       <c r="J4" t="n">
         <v>0.7499999999999999</v>
       </c>
@@ -739,7 +741,7 @@
         <v>0.6666666666666665</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="R4" t="n">
         <v>0.25</v>
@@ -757,7 +759,7 @@
         <v>0.7499999999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>0.5</v>
+        <v>0.7499999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -770,7 +772,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.625</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="D5" t="n">
         <v>0.6</v>
@@ -779,13 +781,15 @@
         <v>0.8</v>
       </c>
       <c r="F5" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
         <v>0.2380952380952381</v>
       </c>
-      <c r="I5" t="inlineStr"/>
+      <c r="I5" t="n">
+        <v>0.2380952380952381</v>
+      </c>
       <c r="J5" t="n">
         <v>0.6521739130434783</v>
       </c>
@@ -808,7 +812,7 @@
         <v>0.625</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.5769230769230769</v>
+        <v>0.7692307692307692</v>
       </c>
       <c r="R5" t="n">
         <v>0.2173913043478261</v>
@@ -826,7 +830,7 @@
         <v>0.6521739130434783</v>
       </c>
       <c r="W5" t="n">
-        <v>0.4347826086956522</v>
+        <v>0.6521739130434783</v>
       </c>
     </row>
     <row r="6">
@@ -839,7 +843,7 @@
         <v>0.977051421735822</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2711632248823574</v>
+        <v>0.9503498753418869</v>
       </c>
       <c r="D6" t="n">
         <v>0.5344276397854767</v>
@@ -848,7 +852,7 @@
         <v>0.7745105414354255</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3219691189265964</v>
+        <v>0.6615624441563611</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -857,7 +861,7 @@
         <v>0.06572774036705124</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.6791866504595295</v>
       </c>
       <c r="J6" t="n">
         <v>0.9402683711198732</v>
@@ -881,7 +885,7 @@
         <v>0.9174860051583612</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2232340095960755</v>
+        <v>0.5157437785053824</v>
       </c>
       <c r="R6" t="n">
         <v>0.02190924678901708</v>
@@ -899,7 +903,7 @@
         <v>0.7869036435967537</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1077169931372241</v>
+        <v>0.7869036435967537</v>
       </c>
     </row>
     <row r="7">
@@ -912,7 +916,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="b">
         <v>0</v>
@@ -930,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -972,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="W7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -985,7 +989,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -994,7 +998,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
@@ -1003,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -1045,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="W8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -1058,7 +1062,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -1067,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
@@ -1076,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1100,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="Q9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="b">
         <v>0</v>
@@ -1118,7 +1122,7 @@
         <v>1</v>
       </c>
       <c r="W9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1130,17 +1134,23 @@
       <c r="B10" t="n">
         <v>1</v>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
       <c r="D10" t="n">
         <v>3</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
       </c>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>3</v>
+      </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
+      <c r="I10" t="n">
+        <v>1</v>
+      </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
@@ -1154,7 +1164,9 @@
       <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="Q10" t="inlineStr"/>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
       <c r="R10" t="inlineStr"/>
       <c r="S10" t="inlineStr"/>
       <c r="T10" t="inlineStr"/>
@@ -1162,7 +1174,9 @@
       <c r="V10" t="n">
         <v>1</v>
       </c>
-      <c r="W10" t="inlineStr"/>
+      <c r="W10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
